--- a/data/live_crypto_data.xlsx
+++ b/data/live_crypto_data.xlsx
@@ -477,16 +477,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>95223</v>
+        <v>96144</v>
       </c>
       <c r="D2" t="n">
-        <v>1888195175843</v>
+        <v>1906515046285</v>
       </c>
       <c r="E2" t="n">
-        <v>34223954344</v>
+        <v>33620350276</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.2058</v>
+        <v>-2.05954</v>
       </c>
     </row>
     <row r="3">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2604.37</v>
+        <v>2617.09</v>
       </c>
       <c r="D3" t="n">
-        <v>313942771588</v>
+        <v>315830926092</v>
       </c>
       <c r="E3" t="n">
-        <v>19569419689</v>
+        <v>20302078289</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.70497</v>
+        <v>-3.4627</v>
       </c>
     </row>
     <row r="4">
@@ -525,16 +525,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.99984</v>
+        <v>0.999904</v>
       </c>
       <c r="D4" t="n">
-        <v>141856849298</v>
+        <v>141938998340</v>
       </c>
       <c r="E4" t="n">
-        <v>65564264185</v>
+        <v>36448693889</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.02669</v>
+        <v>-0.02275</v>
       </c>
     </row>
     <row r="5">
@@ -552,13 +552,13 @@
         <v>2.41</v>
       </c>
       <c r="D5" t="n">
-        <v>139529929946</v>
+        <v>139276127060</v>
       </c>
       <c r="E5" t="n">
-        <v>4603710420</v>
+        <v>4085546706</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.80614</v>
+        <v>-3.80979</v>
       </c>
     </row>
     <row r="6">
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>196.86</v>
+        <v>195.53</v>
       </c>
       <c r="D6" t="n">
-        <v>96080197738</v>
+        <v>95489113367</v>
       </c>
       <c r="E6" t="n">
-        <v>4500242734</v>
+        <v>3591768309</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.45562</v>
+        <v>-4.37895</v>
       </c>
     </row>
     <row r="7">
@@ -597,16 +597,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>630.4299999999999</v>
+        <v>642.35</v>
       </c>
       <c r="D7" t="n">
-        <v>91997194798</v>
+        <v>93753306264</v>
       </c>
       <c r="E7" t="n">
-        <v>1411554551</v>
+        <v>1250043392</v>
       </c>
       <c r="F7" t="n">
-        <v>3.14602</v>
+        <v>0.05485</v>
       </c>
     </row>
     <row r="8">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.999973</v>
+        <v>0.999898</v>
       </c>
       <c r="D8" t="n">
-        <v>56325267049</v>
+        <v>56035616385</v>
       </c>
       <c r="E8" t="n">
-        <v>6130258151</v>
+        <v>4032923223</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00709</v>
+        <v>-0.00325</v>
       </c>
     </row>
     <row r="9">
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.252424</v>
+        <v>0.253426</v>
       </c>
       <c r="D9" t="n">
-        <v>37362217969</v>
+        <v>37529590114</v>
       </c>
       <c r="E9" t="n">
-        <v>1620614932</v>
+        <v>1385109702</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.7599900000000001</v>
+        <v>-5.11807</v>
       </c>
     </row>
     <row r="10">
@@ -669,16 +669,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.771922</v>
+        <v>0.767455</v>
       </c>
       <c r="D10" t="n">
-        <v>27726213308</v>
+        <v>27575490040</v>
       </c>
       <c r="E10" t="n">
-        <v>1714205581</v>
+        <v>1283321503</v>
       </c>
       <c r="F10" t="n">
-        <v>9.71012</v>
+        <v>-4.73872</v>
       </c>
     </row>
     <row r="11">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2597.6</v>
+        <v>2615.92</v>
       </c>
       <c r="D11" t="n">
-        <v>24431709629</v>
+        <v>24737401739</v>
       </c>
       <c r="E11" t="n">
-        <v>81802282</v>
+        <v>111737867</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.83239</v>
+        <v>-3.47427</v>
       </c>
     </row>
     <row r="12">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.241835</v>
+        <v>0.240908</v>
       </c>
       <c r="D12" t="n">
-        <v>20831914968</v>
+        <v>20749019564</v>
       </c>
       <c r="E12" t="n">
-        <v>724796910</v>
+        <v>707617199</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9952</v>
+        <v>-2.01451</v>
       </c>
     </row>
     <row r="13">
@@ -741,16 +741,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>95213</v>
+        <v>96052</v>
       </c>
       <c r="D13" t="n">
-        <v>12312852066</v>
+        <v>12404009513</v>
       </c>
       <c r="E13" t="n">
-        <v>291441285</v>
+        <v>415299461</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.08236</v>
+        <v>-1.88841</v>
       </c>
     </row>
     <row r="14">
@@ -765,64 +765,64 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>18.59</v>
+        <v>18.5</v>
       </c>
       <c r="D14" t="n">
-        <v>11870636891</v>
+        <v>11821243905</v>
       </c>
       <c r="E14" t="n">
-        <v>601211340</v>
+        <v>511880399</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.42394</v>
+        <v>-5.40579</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Avalanche</t>
+          <t>Wrapped stETH</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>avax</t>
+          <t>wsteth</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>25.27</v>
+        <v>3131</v>
       </c>
       <c r="D15" t="n">
-        <v>10402050553</v>
+        <v>10514163375</v>
       </c>
       <c r="E15" t="n">
-        <v>362371638</v>
+        <v>75941125</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.21679</v>
+        <v>-3.45923</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Wrapped stETH</t>
+          <t>Avalanche</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>wsteth</t>
+          <t>avax</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3094.14</v>
+        <v>24.93</v>
       </c>
       <c r="D16" t="n">
-        <v>10391413746</v>
+        <v>10277772981</v>
       </c>
       <c r="E16" t="n">
-        <v>15911955</v>
+        <v>338545091</v>
       </c>
       <c r="F16" t="n">
-        <v>-3.41255</v>
+        <v>-7.13782</v>
       </c>
     </row>
     <row r="17">
@@ -837,16 +837,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3.3</v>
+        <v>3.26</v>
       </c>
       <c r="D17" t="n">
-        <v>10209355414</v>
+        <v>10076630005</v>
       </c>
       <c r="E17" t="n">
-        <v>1550622735</v>
+        <v>1202617292</v>
       </c>
       <c r="F17" t="n">
-        <v>1.66538</v>
+        <v>-8.375030000000001</v>
       </c>
     </row>
     <row r="18">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.31895</v>
+        <v>0.315711</v>
       </c>
       <c r="D18" t="n">
-        <v>9760572443</v>
+        <v>9666971248</v>
       </c>
       <c r="E18" t="n">
-        <v>377871415</v>
+        <v>327904167</v>
       </c>
       <c r="F18" t="n">
-        <v>1.43658</v>
+        <v>-5.95712</v>
       </c>
     </row>
     <row r="19">
@@ -888,13 +888,13 @@
         <v>3.73</v>
       </c>
       <c r="D19" t="n">
-        <v>9306202012</v>
+        <v>9300237725</v>
       </c>
       <c r="E19" t="n">
-        <v>149167835</v>
+        <v>141205618</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.78983</v>
+        <v>-4.25112</v>
       </c>
     </row>
     <row r="20">
@@ -909,64 +909,64 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.559e-05</v>
+        <v>1.571e-05</v>
       </c>
       <c r="D20" t="n">
-        <v>9189885647</v>
+        <v>9262294829</v>
       </c>
       <c r="E20" t="n">
-        <v>258963359</v>
+        <v>232472793</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.76058</v>
+        <v>-4.03493</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Litecoin</t>
+          <t>LEO Token</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ltc</t>
+          <t>leo</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>120.23</v>
+        <v>9.83</v>
       </c>
       <c r="D21" t="n">
-        <v>9080900437</v>
+        <v>9090110752</v>
       </c>
       <c r="E21" t="n">
-        <v>1979146813</v>
+        <v>501201</v>
       </c>
       <c r="F21" t="n">
-        <v>0.54214</v>
+        <v>-0.47159</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LEO Token</t>
+          <t>Litecoin</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>leo</t>
+          <t>ltc</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>9.779999999999999</v>
+        <v>116.99</v>
       </c>
       <c r="D22" t="n">
-        <v>9034634551</v>
+        <v>8847973275</v>
       </c>
       <c r="E22" t="n">
-        <v>509488</v>
+        <v>1417751853</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.95348</v>
+        <v>-9.01436</v>
       </c>
     </row>
     <row r="23">
@@ -981,16 +981,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.229534</v>
+        <v>0.22276</v>
       </c>
       <c r="D23" t="n">
-        <v>8796617154</v>
+        <v>8527875572</v>
       </c>
       <c r="E23" t="n">
-        <v>314678903</v>
+        <v>263106936</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.94015</v>
+        <v>-8.600110000000001</v>
       </c>
     </row>
     <row r="24">
@@ -1005,64 +1005,64 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.998275</v>
+        <v>0.99965</v>
       </c>
       <c r="D24" t="n">
-        <v>8532995049</v>
+        <v>8426169953</v>
       </c>
       <c r="E24" t="n">
-        <v>12434216</v>
+        <v>7677578</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.16259</v>
+        <v>0.04404</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>WETH</t>
+          <t>Hyperliquid</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>weth</t>
+          <t>hype</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2603.89</v>
+        <v>23.66</v>
       </c>
       <c r="D25" t="n">
-        <v>7756172756</v>
+        <v>7904841558</v>
       </c>
       <c r="E25" t="n">
-        <v>873187815</v>
+        <v>118034515</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.67059</v>
+        <v>-4.51083</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Hyperliquid</t>
+          <t>WETH</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>hype</t>
+          <t>weth</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>23.16</v>
+        <v>2620.7</v>
       </c>
       <c r="D26" t="n">
-        <v>7739229860</v>
+        <v>7674529164</v>
       </c>
       <c r="E26" t="n">
-        <v>134397347</v>
+        <v>878114000</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.39693</v>
+        <v>-3.28876</v>
       </c>
     </row>
     <row r="27">
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>6.34</v>
+        <v>6.15</v>
       </c>
       <c r="D27" t="n">
-        <v>7603652460</v>
+        <v>7374669458</v>
       </c>
       <c r="E27" t="n">
-        <v>216756994</v>
+        <v>289078321</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.83776</v>
+        <v>-4.93058</v>
       </c>
     </row>
     <row r="28">
@@ -1101,16 +1101,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4.81</v>
+        <v>4.83</v>
       </c>
       <c r="D28" t="n">
-        <v>7328132043</v>
+        <v>7354429187</v>
       </c>
       <c r="E28" t="n">
-        <v>267359113</v>
+        <v>233151593</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.28452</v>
+        <v>-5.91329</v>
       </c>
     </row>
     <row r="29">
@@ -1125,16 +1125,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>329.71</v>
+        <v>330.67</v>
       </c>
       <c r="D29" t="n">
-        <v>6540103549</v>
+        <v>6561371037</v>
       </c>
       <c r="E29" t="n">
-        <v>156547786</v>
+        <v>144377125</v>
       </c>
       <c r="F29" t="n">
-        <v>0.01056</v>
+        <v>-3.13496</v>
       </c>
     </row>
     <row r="30">
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.999509</v>
+        <v>0.998992</v>
       </c>
       <c r="D30" t="n">
-        <v>6040899016</v>
+        <v>6013205031</v>
       </c>
       <c r="E30" t="n">
-        <v>129731653</v>
+        <v>99478624</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.06046</v>
+        <v>-0.07695</v>
       </c>
     </row>
     <row r="31">
@@ -1173,16 +1173,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5.89</v>
+        <v>5.92</v>
       </c>
       <c r="D31" t="n">
-        <v>5721190999</v>
+        <v>5756104556</v>
       </c>
       <c r="E31" t="n">
-        <v>223547364</v>
+        <v>307469099</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.09666</v>
+        <v>-0.92079</v>
       </c>
     </row>
     <row r="32">
@@ -1197,16 +1197,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>9.380000000000001</v>
+        <v>9.41</v>
       </c>
       <c r="D32" t="n">
-        <v>5627726316</v>
+        <v>5658978685</v>
       </c>
       <c r="E32" t="n">
-        <v>324964379</v>
+        <v>305955436</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.29317</v>
+        <v>-5.75964</v>
       </c>
     </row>
     <row r="33">
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2753.35</v>
+        <v>2775.71</v>
       </c>
       <c r="D33" t="n">
-        <v>5236446827</v>
+        <v>5291710426</v>
       </c>
       <c r="E33" t="n">
-        <v>10883895</v>
+        <v>7460040</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.76472</v>
+        <v>-3.2643</v>
       </c>
     </row>
     <row r="34">
@@ -1245,16 +1245,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="D34" t="n">
-        <v>4264165773</v>
+        <v>4234414435</v>
       </c>
       <c r="E34" t="n">
-        <v>432308738</v>
+        <v>396025906</v>
       </c>
       <c r="F34" t="n">
-        <v>0.97722</v>
+        <v>-4.44628</v>
       </c>
     </row>
     <row r="35">
@@ -1269,16 +1269,16 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>221.35</v>
+        <v>222.07</v>
       </c>
       <c r="D35" t="n">
-        <v>4083039612</v>
+        <v>4102434241</v>
       </c>
       <c r="E35" t="n">
-        <v>66069491</v>
+        <v>58307375</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.21422</v>
+        <v>-0.87196</v>
       </c>
     </row>
     <row r="36">
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>9.54e-06</v>
+        <v>9.52e-06</v>
       </c>
       <c r="D36" t="n">
-        <v>4010896434</v>
+        <v>4006376981</v>
       </c>
       <c r="E36" t="n">
-        <v>967090163</v>
+        <v>875066662</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.61412</v>
+        <v>-8.699960000000001</v>
       </c>
     </row>
     <row r="37">
@@ -1317,16 +1317,16 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>27.33</v>
+        <v>27.42</v>
       </c>
       <c r="D37" t="n">
-        <v>3940988997</v>
+        <v>3949761902</v>
       </c>
       <c r="E37" t="n">
-        <v>22366911</v>
+        <v>24981127</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.12953</v>
+        <v>-0.968</v>
       </c>
     </row>
     <row r="38">
@@ -1341,16 +1341,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3.19</v>
+        <v>3.18</v>
       </c>
       <c r="D38" t="n">
-        <v>3772160281</v>
+        <v>3769617916</v>
       </c>
       <c r="E38" t="n">
-        <v>210542260</v>
+        <v>224297042</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.7751</v>
+        <v>-5.64753</v>
       </c>
     </row>
     <row r="39">
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>244.6</v>
+        <v>242.66</v>
       </c>
       <c r="D39" t="n">
-        <v>3686965474</v>
+        <v>3660506942</v>
       </c>
       <c r="E39" t="n">
-        <v>348119871</v>
+        <v>296406396</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.5203</v>
+        <v>-6.73762</v>
       </c>
     </row>
     <row r="40">
@@ -1389,16 +1389,16 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.999945</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>3480163000</v>
+        <v>3476960039</v>
       </c>
       <c r="E40" t="n">
-        <v>196559670</v>
+        <v>224236383</v>
       </c>
       <c r="F40" t="n">
-        <v>0.03305</v>
+        <v>-0.00795</v>
       </c>
     </row>
     <row r="41">
@@ -1413,40 +1413,40 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1.018</v>
+        <v>1.013</v>
       </c>
       <c r="D41" t="n">
-        <v>3428966425</v>
+        <v>3414238752</v>
       </c>
       <c r="E41" t="n">
-        <v>114828530</v>
+        <v>117473531</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.50695</v>
+        <v>-4.10676</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Bittensor</t>
+          <t>Internet Computer</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>tao</t>
+          <t>icp</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>415.83</v>
+        <v>7.09</v>
       </c>
       <c r="D42" t="n">
-        <v>3420748682</v>
+        <v>3407189756</v>
       </c>
       <c r="E42" t="n">
-        <v>245405306</v>
+        <v>90344773</v>
       </c>
       <c r="F42" t="n">
-        <v>6.97997</v>
+        <v>-4.25171</v>
       </c>
     </row>
     <row r="43">
@@ -1461,40 +1461,40 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5.88</v>
+        <v>5.89</v>
       </c>
       <c r="D43" t="n">
-        <v>3385042445</v>
+        <v>3391124867</v>
       </c>
       <c r="E43" t="n">
-        <v>276311224</v>
+        <v>231934276</v>
       </c>
       <c r="F43" t="n">
-        <v>-5.41079</v>
+        <v>-6.02561</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Internet Computer</t>
+          <t>Bittensor</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>icp</t>
+          <t>tao</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>7.04</v>
+        <v>396.04</v>
       </c>
       <c r="D44" t="n">
-        <v>3380810575</v>
+        <v>3257127761</v>
       </c>
       <c r="E44" t="n">
-        <v>99706985</v>
+        <v>120002618</v>
       </c>
       <c r="F44" t="n">
-        <v>0.56064</v>
+        <v>-7.55059</v>
       </c>
     </row>
     <row r="45">
@@ -1509,88 +1509,88 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1.039</v>
+        <v>1.034</v>
       </c>
       <c r="D45" t="n">
-        <v>3363307020</v>
+        <v>3250909561</v>
       </c>
       <c r="E45" t="n">
-        <v>476063</v>
+        <v>351830</v>
       </c>
       <c r="F45" t="n">
-        <v>0.47646</v>
+        <v>0.04719</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Official Trump</t>
+          <t>Ethereum Classic</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>trump</t>
+          <t>etc</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>15.44</v>
+        <v>20.39</v>
       </c>
       <c r="D46" t="n">
-        <v>3092140383</v>
+        <v>3076008515</v>
       </c>
       <c r="E46" t="n">
-        <v>840578716</v>
+        <v>103843716</v>
       </c>
       <c r="F46" t="n">
-        <v>-4.42466</v>
+        <v>-3.9809</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>OKB</t>
+          <t>Official Trump</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>okb</t>
+          <t>trump</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>50.52</v>
+        <v>15.18</v>
       </c>
       <c r="D47" t="n">
-        <v>3033573859</v>
+        <v>3037716007</v>
       </c>
       <c r="E47" t="n">
-        <v>12751916</v>
+        <v>792358766</v>
       </c>
       <c r="F47" t="n">
-        <v>3.83101</v>
+        <v>-7.22251</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Ethereum Classic</t>
+          <t>OKB</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>etc</t>
+          <t>okb</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>20.05</v>
+        <v>49.95</v>
       </c>
       <c r="D48" t="n">
-        <v>3021524560</v>
+        <v>2996889143</v>
       </c>
       <c r="E48" t="n">
-        <v>102600271</v>
+        <v>10198779</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.90448</v>
+        <v>-0.67074</v>
       </c>
     </row>
     <row r="49">
@@ -1605,16 +1605,16 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>21.71</v>
+        <v>22.13</v>
       </c>
       <c r="D49" t="n">
-        <v>2734892031</v>
+        <v>2784999063</v>
       </c>
       <c r="E49" t="n">
-        <v>18115123</v>
+        <v>14574734</v>
       </c>
       <c r="F49" t="n">
-        <v>1.52826</v>
+        <v>-0.06390999999999999</v>
       </c>
     </row>
     <row r="50">
@@ -1629,16 +1629,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.0332943</v>
+        <v>0.03311582</v>
       </c>
       <c r="D50" t="n">
-        <v>2694075575</v>
+        <v>2688930471</v>
       </c>
       <c r="E50" t="n">
-        <v>54458447</v>
+        <v>51990823</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.11846</v>
+        <v>-6.6285</v>
       </c>
     </row>
     <row r="51">
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.307635</v>
+        <v>0.308288</v>
       </c>
       <c r="D51" t="n">
-        <v>2633367549</v>
+        <v>2639119168</v>
       </c>
       <c r="E51" t="n">
-        <v>90370077</v>
+        <v>87792126</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.54089</v>
+        <v>-5.44322</v>
       </c>
     </row>
   </sheetData>
